--- a/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_Python環境変数ファイル定義(SaaS対応).xlsx
+++ b/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_Python環境変数ファイル定義(SaaS対応).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="17250" windowHeight="6750"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="17250" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="158">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -990,10 +990,6 @@
   </si>
   <si>
     <t>Issue1.7</t>
-    <phoneticPr fontId="20"/>
-  </si>
-  <si>
-    <t>Issue1.7</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1006,6 +1002,39 @@
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Issue1.8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E_本稼動_19531対応</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>REST_CONN_TIMEOUT_SEC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>REST接続タイムアウト時間（秒）</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Issue1.8</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>30.05</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1519,7 +1548,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1660,6 +1689,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1678,14 +1717,14 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1696,14 +1735,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1741,19 +1792,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2408,6 +2446,7 @@
       <sheetName val="_ADFDI_BCMetadata"/>
       <sheetName val="_ADFDI_LOV"/>
       <sheetName val="Lookups"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -3155,6 +3194,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3170,6 +3210,8 @@
       <sheetName val="_ADFDI_WorkbookData"/>
       <sheetName val="_ADFDI_BCMetadata"/>
       <sheetName val="_ADFDI_LOV"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="List Sources"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -3213,6 +3255,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3986,8 +4030,8 @@
       <c r="A1" s="38"/>
     </row>
     <row r="2" spans="1:9" s="40" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="41"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
@@ -4055,30 +4099,30 @@
       <c r="C15" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:9" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="C16" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="71">
         <v>44762</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="C17" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="67">
-        <v>45156</v>
-      </c>
-      <c r="E17" s="66"/>
+      <c r="D17" s="71">
+        <v>45198</v>
+      </c>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" s="48"/>
@@ -4095,10 +4139,10 @@
       <c r="C19" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="69"/>
+      <c r="D19" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="73"/>
     </row>
     <row r="20" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
@@ -4119,15 +4163,15 @@
       <c r="C25" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
     </row>
     <row r="26" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C26" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
     </row>
     <row r="27" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
@@ -4453,1389 +4497,1397 @@
   <sheetData>
     <row r="1" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="79" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="79" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="83"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="91"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A3" s="84">
+      <c r="A3" s="92">
         <v>44762</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87" t="s">
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="88" t="s">
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="90"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="98"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A4" s="91">
+      <c r="A4" s="80">
         <v>44979</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="73" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="70" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="72"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="86"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A5" s="91">
+      <c r="A5" s="80">
         <v>44985</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="73" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="73" t="s">
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="70" t="s">
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="72"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="85"/>
+      <c r="AO5" s="86"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A6" s="91">
+      <c r="A6" s="80">
         <v>45028</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="73" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="73" t="s">
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="70" t="s">
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="72"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="86"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A7" s="91">
+      <c r="A7" s="80">
         <v>45054</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="73" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="73" t="s">
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="92" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="94"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="82"/>
+      <c r="AO7" s="83"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A8" s="91">
+      <c r="A8" s="80">
         <v>45090</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="73" t="s">
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="70" t="s">
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="72"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="86"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A9" s="91">
+      <c r="A9" s="80">
         <v>45091</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="73" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="73" t="s">
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="70" t="s">
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="72"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="86"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A10" s="91">
+      <c r="A10" s="80">
         <v>45132</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="73" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="73" t="s">
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="70" t="s">
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="72"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="85"/>
+      <c r="AO10" s="86"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A11" s="91">
+      <c r="A11" s="80">
         <v>45156</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="73" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="73" t="s">
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="71"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="72"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="85"/>
+      <c r="AI11" s="85"/>
+      <c r="AJ11" s="85"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="85"/>
+      <c r="AM11" s="85"/>
+      <c r="AN11" s="85"/>
+      <c r="AO11" s="86"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A12" s="91"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="72"/>
+      <c r="A12" s="80">
+        <v>45198</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="85"/>
+      <c r="AE12" s="85"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="85"/>
+      <c r="AI12" s="85"/>
+      <c r="AJ12" s="85"/>
+      <c r="AK12" s="85"/>
+      <c r="AL12" s="85"/>
+      <c r="AM12" s="85"/>
+      <c r="AN12" s="85"/>
+      <c r="AO12" s="86"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="71"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="72"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="85"/>
+      <c r="AE13" s="85"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="85"/>
+      <c r="AK13" s="85"/>
+      <c r="AL13" s="85"/>
+      <c r="AM13" s="85"/>
+      <c r="AN13" s="85"/>
+      <c r="AO13" s="86"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A14" s="91"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="71"/>
-      <c r="AM14" s="71"/>
-      <c r="AN14" s="71"/>
-      <c r="AO14" s="72"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="85"/>
+      <c r="AE14" s="85"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="85"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="85"/>
+      <c r="AM14" s="85"/>
+      <c r="AN14" s="85"/>
+      <c r="AO14" s="86"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="71"/>
-      <c r="AO15" s="72"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="85"/>
+      <c r="AL15" s="85"/>
+      <c r="AM15" s="85"/>
+      <c r="AN15" s="85"/>
+      <c r="AO15" s="86"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A16" s="91"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="72"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="85"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="85"/>
+      <c r="AE16" s="85"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="85"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="85"/>
+      <c r="AL16" s="85"/>
+      <c r="AM16" s="85"/>
+      <c r="AN16" s="85"/>
+      <c r="AO16" s="86"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A17" s="91"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="72"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="85"/>
+      <c r="AE17" s="85"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="85"/>
+      <c r="AN17" s="85"/>
+      <c r="AO17" s="86"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A18" s="91"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="72"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="85"/>
+      <c r="AE18" s="85"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="85"/>
+      <c r="AL18" s="85"/>
+      <c r="AM18" s="85"/>
+      <c r="AN18" s="85"/>
+      <c r="AO18" s="86"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A19" s="91"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="71"/>
-      <c r="AN19" s="71"/>
-      <c r="AO19" s="72"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="85"/>
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="85"/>
+      <c r="AH19" s="85"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="85"/>
+      <c r="AM19" s="85"/>
+      <c r="AN19" s="85"/>
+      <c r="AO19" s="86"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A20" s="91"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="71"/>
-      <c r="AL20" s="71"/>
-      <c r="AM20" s="71"/>
-      <c r="AN20" s="71"/>
-      <c r="AO20" s="72"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="85"/>
+      <c r="AI20" s="85"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="85"/>
+      <c r="AN20" s="85"/>
+      <c r="AO20" s="86"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A21" s="91"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="71"/>
-      <c r="AG21" s="71"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="72"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="85"/>
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="85"/>
+      <c r="AM21" s="85"/>
+      <c r="AN21" s="85"/>
+      <c r="AO21" s="86"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A22" s="91"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="72"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="85"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="85"/>
+      <c r="AE22" s="85"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="85"/>
+      <c r="AH22" s="85"/>
+      <c r="AI22" s="85"/>
+      <c r="AJ22" s="85"/>
+      <c r="AK22" s="85"/>
+      <c r="AL22" s="85"/>
+      <c r="AM22" s="85"/>
+      <c r="AN22" s="85"/>
+      <c r="AO22" s="86"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A23" s="91"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="71"/>
-      <c r="AM23" s="71"/>
-      <c r="AN23" s="71"/>
-      <c r="AO23" s="72"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="85"/>
+      <c r="AK23" s="85"/>
+      <c r="AL23" s="85"/>
+      <c r="AM23" s="85"/>
+      <c r="AN23" s="85"/>
+      <c r="AO23" s="86"/>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A24" s="91"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="71"/>
-      <c r="AL24" s="71"/>
-      <c r="AM24" s="71"/>
-      <c r="AN24" s="71"/>
-      <c r="AO24" s="72"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="85"/>
+      <c r="X24" s="85"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="85"/>
+      <c r="AB24" s="85"/>
+      <c r="AC24" s="85"/>
+      <c r="AD24" s="85"/>
+      <c r="AE24" s="85"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="85"/>
+      <c r="AH24" s="85"/>
+      <c r="AI24" s="85"/>
+      <c r="AJ24" s="85"/>
+      <c r="AK24" s="85"/>
+      <c r="AL24" s="85"/>
+      <c r="AM24" s="85"/>
+      <c r="AN24" s="85"/>
+      <c r="AO24" s="86"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A25" s="91"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="71"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="71"/>
-      <c r="AK25" s="71"/>
-      <c r="AL25" s="71"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="71"/>
-      <c r="AO25" s="72"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="85"/>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="85"/>
+      <c r="AH25" s="85"/>
+      <c r="AI25" s="85"/>
+      <c r="AJ25" s="85"/>
+      <c r="AK25" s="85"/>
+      <c r="AL25" s="85"/>
+      <c r="AM25" s="85"/>
+      <c r="AN25" s="85"/>
+      <c r="AO25" s="86"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A26" s="91"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="71"/>
-      <c r="AG26" s="71"/>
-      <c r="AH26" s="71"/>
-      <c r="AI26" s="71"/>
-      <c r="AJ26" s="71"/>
-      <c r="AK26" s="71"/>
-      <c r="AL26" s="71"/>
-      <c r="AM26" s="71"/>
-      <c r="AN26" s="71"/>
-      <c r="AO26" s="72"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="85"/>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="85"/>
+      <c r="AH26" s="85"/>
+      <c r="AI26" s="85"/>
+      <c r="AJ26" s="85"/>
+      <c r="AK26" s="85"/>
+      <c r="AL26" s="85"/>
+      <c r="AM26" s="85"/>
+      <c r="AN26" s="85"/>
+      <c r="AO26" s="86"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A27" s="91"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="71"/>
-      <c r="AL27" s="71"/>
-      <c r="AM27" s="71"/>
-      <c r="AN27" s="71"/>
-      <c r="AO27" s="72"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="85"/>
+      <c r="AD27" s="85"/>
+      <c r="AE27" s="85"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="85"/>
+      <c r="AH27" s="85"/>
+      <c r="AI27" s="85"/>
+      <c r="AJ27" s="85"/>
+      <c r="AK27" s="85"/>
+      <c r="AL27" s="85"/>
+      <c r="AM27" s="85"/>
+      <c r="AN27" s="85"/>
+      <c r="AO27" s="86"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A28" s="91"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="71"/>
-      <c r="AE28" s="71"/>
-      <c r="AF28" s="71"/>
-      <c r="AG28" s="71"/>
-      <c r="AH28" s="71"/>
-      <c r="AI28" s="71"/>
-      <c r="AJ28" s="71"/>
-      <c r="AK28" s="71"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="71"/>
-      <c r="AN28" s="71"/>
-      <c r="AO28" s="72"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="85"/>
+      <c r="AE28" s="85"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="85"/>
+      <c r="AI28" s="85"/>
+      <c r="AJ28" s="85"/>
+      <c r="AK28" s="85"/>
+      <c r="AL28" s="85"/>
+      <c r="AM28" s="85"/>
+      <c r="AN28" s="85"/>
+      <c r="AO28" s="86"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="71"/>
-      <c r="AL29" s="71"/>
-      <c r="AM29" s="71"/>
-      <c r="AN29" s="71"/>
-      <c r="AO29" s="72"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="85"/>
+      <c r="AE29" s="85"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="85"/>
+      <c r="AH29" s="85"/>
+      <c r="AI29" s="85"/>
+      <c r="AJ29" s="85"/>
+      <c r="AK29" s="85"/>
+      <c r="AL29" s="85"/>
+      <c r="AM29" s="85"/>
+      <c r="AN29" s="85"/>
+      <c r="AO29" s="86"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="71"/>
-      <c r="AL30" s="71"/>
-      <c r="AM30" s="71"/>
-      <c r="AN30" s="71"/>
-      <c r="AO30" s="72"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="85"/>
+      <c r="AH30" s="85"/>
+      <c r="AI30" s="85"/>
+      <c r="AJ30" s="85"/>
+      <c r="AK30" s="85"/>
+      <c r="AL30" s="85"/>
+      <c r="AM30" s="85"/>
+      <c r="AN30" s="85"/>
+      <c r="AO30" s="86"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="71"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="71"/>
-      <c r="AG31" s="71"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="71"/>
-      <c r="AK31" s="71"/>
-      <c r="AL31" s="71"/>
-      <c r="AM31" s="71"/>
-      <c r="AN31" s="71"/>
-      <c r="AO31" s="72"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="85"/>
+      <c r="AD31" s="85"/>
+      <c r="AE31" s="85"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="85"/>
+      <c r="AH31" s="85"/>
+      <c r="AI31" s="85"/>
+      <c r="AJ31" s="85"/>
+      <c r="AK31" s="85"/>
+      <c r="AL31" s="85"/>
+      <c r="AM31" s="85"/>
+      <c r="AN31" s="85"/>
+      <c r="AO31" s="86"/>
     </row>
     <row r="32" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="78"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="76"/>
       <c r="N32" s="28"/>
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
@@ -5867,36 +5919,75 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="N29:AO29"/>
+    <mergeCell ref="N30:AO30"/>
+    <mergeCell ref="N31:AO31"/>
+    <mergeCell ref="N24:AO24"/>
+    <mergeCell ref="N25:AO25"/>
+    <mergeCell ref="N26:AO26"/>
+    <mergeCell ref="N27:AO27"/>
+    <mergeCell ref="N28:AO28"/>
+    <mergeCell ref="N19:AO19"/>
+    <mergeCell ref="N20:AO20"/>
+    <mergeCell ref="N21:AO21"/>
+    <mergeCell ref="N22:AO22"/>
+    <mergeCell ref="N23:AO23"/>
+    <mergeCell ref="N14:AO14"/>
+    <mergeCell ref="N15:AO15"/>
+    <mergeCell ref="N16:AO16"/>
+    <mergeCell ref="N17:AO17"/>
+    <mergeCell ref="N18:AO18"/>
+    <mergeCell ref="N9:AO9"/>
+    <mergeCell ref="N10:AO10"/>
+    <mergeCell ref="N11:AO11"/>
+    <mergeCell ref="N12:AO12"/>
+    <mergeCell ref="N13:AO13"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="N2:AO2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="N3:AO3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="N4:AO4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="N5:AO5"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="N6:AO6"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="N7:AO7"/>
@@ -5921,75 +6012,36 @@
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="N2:AO2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="N3:AO3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N4:AO4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="N5:AO5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="N6:AO6"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="N14:AO14"/>
-    <mergeCell ref="N15:AO15"/>
-    <mergeCell ref="N16:AO16"/>
-    <mergeCell ref="N17:AO17"/>
-    <mergeCell ref="N18:AO18"/>
-    <mergeCell ref="N9:AO9"/>
-    <mergeCell ref="N10:AO10"/>
-    <mergeCell ref="N11:AO11"/>
-    <mergeCell ref="N12:AO12"/>
-    <mergeCell ref="N13:AO13"/>
-    <mergeCell ref="N29:AO29"/>
-    <mergeCell ref="N30:AO30"/>
-    <mergeCell ref="N31:AO31"/>
-    <mergeCell ref="N24:AO24"/>
-    <mergeCell ref="N25:AO25"/>
-    <mergeCell ref="N26:AO26"/>
-    <mergeCell ref="N27:AO27"/>
-    <mergeCell ref="N28:AO28"/>
-    <mergeCell ref="N19:AO19"/>
-    <mergeCell ref="N20:AO20"/>
-    <mergeCell ref="N21:AO21"/>
-    <mergeCell ref="N22:AO22"/>
-    <mergeCell ref="N23:AO23"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -7171,8 +7223,8 @@
       <c r="AA11" s="24"/>
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
-      <c r="AD11" s="95" t="s">
-        <v>152</v>
+      <c r="AD11" s="64" t="s">
+        <v>151</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -7977,8 +8029,8 @@
       <c r="AA24" s="24"/>
       <c r="AB24" s="24"/>
       <c r="AC24" s="34"/>
-      <c r="AD24" s="63" t="s">
-        <v>151</v>
+      <c r="AD24" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="AE24" s="25"/>
       <c r="AF24" s="24"/>
@@ -8069,35 +8121,41 @@
       <c r="BC25" s="26"/>
     </row>
     <row r="26" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="25"/>
+      <c r="B26" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="63" t="s">
+        <v>157</v>
+      </c>
       <c r="AE26" s="25"/>
       <c r="AF26" s="24"/>
       <c r="AG26" s="25"/>

--- a/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_Python環境変数ファイル定義(SaaS対応).xlsx
+++ b/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_Python環境変数ファイル定義(SaaS対応).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="17250" windowHeight="6750"/>
+    <workbookView xWindow="1170" yWindow="5400" windowWidth="17250" windowHeight="6750" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="165">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -420,10 +420,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>上限繰返回数</t>
     <rPh sb="0" eb="2">
       <t>ジョウゲン</t>
@@ -567,10 +563,6 @@
     <rPh sb="4" eb="6">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>720</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -796,10 +788,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Issue1.3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -997,10 +985,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>240</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1035,6 +1019,61 @@
   </si>
   <si>
     <t>30.05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SCSK細沼</t>
+  </si>
+  <si>
+    <t>Issue1.9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E_本稼動_19878 502bad gatewayエラー対応</t>
+    <rPh sb="29" eb="31">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>待機時間(秒)(REST API再試行)</t>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上限繰返回数(REST API再試行)</t>
+    <rPh sb="15" eb="18">
+      <t>サイシコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SLEEP_TIME_REST_RETRY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MAX_LOOP_CNT_REST_RETRY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>360</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1233,7 +1272,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF66FF"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1689,7 +1728,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="26" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1717,14 +1755,14 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1735,26 +1773,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1792,6 +1818,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3763,7 +3802,7 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4030,8 +4069,8 @@
       <c r="A1" s="38"/>
     </row>
     <row r="2" spans="1:9" s="40" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="41"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
@@ -4041,10 +4080,10 @@
     </row>
     <row r="3" spans="1:9" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
@@ -4053,23 +4092,23 @@
     </row>
     <row r="5" spans="1:9" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
       <c r="B6" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="47"/>
     </row>
     <row r="7" spans="1:9" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="47"/>
     </row>
@@ -4097,52 +4136,52 @@
     <row r="15" spans="1:9" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
       <c r="C15" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="70"/>
+        <v>89</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="69"/>
     </row>
     <row r="16" spans="1:9" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="C16" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="71">
+        <v>91</v>
+      </c>
+      <c r="D16" s="70">
         <v>44762</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="69"/>
     </row>
     <row r="17" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="C17" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="71">
-        <v>45198</v>
-      </c>
-      <c r="E17" s="70"/>
+        <v>92</v>
+      </c>
+      <c r="D17" s="70">
+        <v>45384</v>
+      </c>
+      <c r="E17" s="69"/>
     </row>
     <row r="18" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" s="48"/>
       <c r="C18" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="48"/>
       <c r="C19" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="73"/>
+        <v>95</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="72"/>
     </row>
     <row r="20" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
@@ -4156,22 +4195,22 @@
     <row r="23" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C24" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C25" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
+        <v>97</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
     </row>
     <row r="26" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C26" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
+        <v>98</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
     </row>
     <row r="27" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
@@ -4199,7 +4238,7 @@
     </row>
     <row r="35" spans="1:9" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -4212,7 +4251,7 @@
     </row>
     <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
@@ -4497,1397 +4536,1405 @@
   <sheetData>
     <row r="1" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="87" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="87" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="86"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A3" s="87">
+        <v>44762</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="93"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A4" s="94">
+        <v>44979</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="91"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A3" s="92">
-        <v>44762</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="98"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A4" s="80">
-        <v>44979</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="77" t="s">
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="77" t="s">
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="75"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A5" s="94">
+        <v>44985</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="85"/>
-      <c r="AK4" s="85"/>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="86"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A5" s="80">
-        <v>44985</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="86"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="75"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A6" s="80">
+      <c r="A6" s="94">
         <v>45028</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="77" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="77" t="s">
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
+      <c r="AO6" s="75"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A7" s="94">
+        <v>45054</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="86"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A7" s="80">
-        <v>45054</v>
-      </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="77" t="s">
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="82"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="83"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="96"/>
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="96"/>
+      <c r="AL7" s="96"/>
+      <c r="AM7" s="96"/>
+      <c r="AN7" s="96"/>
+      <c r="AO7" s="97"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A8" s="80">
+      <c r="A8" s="94">
         <v>45090</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="86"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="75"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A9" s="80">
+      <c r="A9" s="94">
         <v>45091</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="85"/>
-      <c r="AN9" s="85"/>
-      <c r="AO9" s="86"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="75"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A10" s="80">
+      <c r="A10" s="94">
         <v>45132</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="77" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="75"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A11" s="94">
+        <v>45156</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="77" t="s">
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="86"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A11" s="80">
-        <v>45156</v>
-      </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="77" t="s">
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="75"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A12" s="94">
+        <v>45198</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="84" t="s">
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="85"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="85"/>
-      <c r="AM11" s="85"/>
-      <c r="AN11" s="85"/>
-      <c r="AO11" s="86"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A12" s="80">
-        <v>45198</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="85"/>
-      <c r="AO12" s="86"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="74"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="75"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A13" s="80"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="85"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="85"/>
-      <c r="AM13" s="85"/>
-      <c r="AN13" s="85"/>
-      <c r="AO13" s="86"/>
+      <c r="A13" s="94">
+        <v>45384</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="74"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="74"/>
+      <c r="AO13" s="75"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A14" s="80"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="85"/>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="85"/>
-      <c r="AM14" s="85"/>
-      <c r="AN14" s="85"/>
-      <c r="AO14" s="86"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="75"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A15" s="80"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="85"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="85"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="85"/>
-      <c r="AM15" s="85"/>
-      <c r="AN15" s="85"/>
-      <c r="AO15" s="86"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="75"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A16" s="80"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="85"/>
-      <c r="AL16" s="85"/>
-      <c r="AM16" s="85"/>
-      <c r="AN16" s="85"/>
-      <c r="AO16" s="86"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="75"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A17" s="80"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="85"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="85"/>
-      <c r="AL17" s="85"/>
-      <c r="AM17" s="85"/>
-      <c r="AN17" s="85"/>
-      <c r="AO17" s="86"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="74"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="75"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A18" s="80"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="85"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="85"/>
-      <c r="AE18" s="85"/>
-      <c r="AF18" s="85"/>
-      <c r="AG18" s="85"/>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="85"/>
-      <c r="AL18" s="85"/>
-      <c r="AM18" s="85"/>
-      <c r="AN18" s="85"/>
-      <c r="AO18" s="86"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="75"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A19" s="80"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="85"/>
-      <c r="AF19" s="85"/>
-      <c r="AG19" s="85"/>
-      <c r="AH19" s="85"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="85"/>
-      <c r="AM19" s="85"/>
-      <c r="AN19" s="85"/>
-      <c r="AO19" s="86"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="74"/>
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="74"/>
+      <c r="AI19" s="74"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="74"/>
+      <c r="AL19" s="74"/>
+      <c r="AM19" s="74"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="75"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A20" s="80"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="85"/>
-      <c r="AE20" s="85"/>
-      <c r="AF20" s="85"/>
-      <c r="AG20" s="85"/>
-      <c r="AH20" s="85"/>
-      <c r="AI20" s="85"/>
-      <c r="AJ20" s="85"/>
-      <c r="AK20" s="85"/>
-      <c r="AL20" s="85"/>
-      <c r="AM20" s="85"/>
-      <c r="AN20" s="85"/>
-      <c r="AO20" s="86"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="74"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="75"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A21" s="80"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="85"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="85"/>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="85"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="85"/>
-      <c r="AM21" s="85"/>
-      <c r="AN21" s="85"/>
-      <c r="AO21" s="86"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="74"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="75"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A22" s="80"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="86"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="74"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="74"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="75"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A23" s="80"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="85"/>
-      <c r="AL23" s="85"/>
-      <c r="AM23" s="85"/>
-      <c r="AN23" s="85"/>
-      <c r="AO23" s="86"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="74"/>
+      <c r="AK23" s="74"/>
+      <c r="AL23" s="74"/>
+      <c r="AM23" s="74"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="75"/>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A24" s="80"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="85"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="85"/>
-      <c r="AE24" s="85"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="85"/>
-      <c r="AH24" s="85"/>
-      <c r="AI24" s="85"/>
-      <c r="AJ24" s="85"/>
-      <c r="AK24" s="85"/>
-      <c r="AL24" s="85"/>
-      <c r="AM24" s="85"/>
-      <c r="AN24" s="85"/>
-      <c r="AO24" s="86"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="74"/>
+      <c r="AK24" s="74"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="74"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="75"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A25" s="80"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="85"/>
-      <c r="AH25" s="85"/>
-      <c r="AI25" s="85"/>
-      <c r="AJ25" s="85"/>
-      <c r="AK25" s="85"/>
-      <c r="AL25" s="85"/>
-      <c r="AM25" s="85"/>
-      <c r="AN25" s="85"/>
-      <c r="AO25" s="86"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="75"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A26" s="80"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="85"/>
-      <c r="AL26" s="85"/>
-      <c r="AM26" s="85"/>
-      <c r="AN26" s="85"/>
-      <c r="AO26" s="86"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="74"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="75"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A27" s="80"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
-      <c r="AI27" s="85"/>
-      <c r="AJ27" s="85"/>
-      <c r="AK27" s="85"/>
-      <c r="AL27" s="85"/>
-      <c r="AM27" s="85"/>
-      <c r="AN27" s="85"/>
-      <c r="AO27" s="86"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="74"/>
+      <c r="AG27" s="74"/>
+      <c r="AH27" s="74"/>
+      <c r="AI27" s="74"/>
+      <c r="AJ27" s="74"/>
+      <c r="AK27" s="74"/>
+      <c r="AL27" s="74"/>
+      <c r="AM27" s="74"/>
+      <c r="AN27" s="74"/>
+      <c r="AO27" s="75"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A28" s="80"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="85"/>
-      <c r="AK28" s="85"/>
-      <c r="AL28" s="85"/>
-      <c r="AM28" s="85"/>
-      <c r="AN28" s="85"/>
-      <c r="AO28" s="86"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="74"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="74"/>
+      <c r="AI28" s="74"/>
+      <c r="AJ28" s="74"/>
+      <c r="AK28" s="74"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="74"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="75"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="85"/>
-      <c r="AK29" s="85"/>
-      <c r="AL29" s="85"/>
-      <c r="AM29" s="85"/>
-      <c r="AN29" s="85"/>
-      <c r="AO29" s="86"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="74"/>
+      <c r="AK29" s="74"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="75"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="85"/>
-      <c r="AH30" s="85"/>
-      <c r="AI30" s="85"/>
-      <c r="AJ30" s="85"/>
-      <c r="AK30" s="85"/>
-      <c r="AL30" s="85"/>
-      <c r="AM30" s="85"/>
-      <c r="AN30" s="85"/>
-      <c r="AO30" s="86"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="74"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="74"/>
+      <c r="AI30" s="74"/>
+      <c r="AJ30" s="74"/>
+      <c r="AK30" s="74"/>
+      <c r="AL30" s="74"/>
+      <c r="AM30" s="74"/>
+      <c r="AN30" s="74"/>
+      <c r="AO30" s="75"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="85"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="85"/>
-      <c r="AD31" s="85"/>
-      <c r="AE31" s="85"/>
-      <c r="AF31" s="85"/>
-      <c r="AG31" s="85"/>
-      <c r="AH31" s="85"/>
-      <c r="AI31" s="85"/>
-      <c r="AJ31" s="85"/>
-      <c r="AK31" s="85"/>
-      <c r="AL31" s="85"/>
-      <c r="AM31" s="85"/>
-      <c r="AN31" s="85"/>
-      <c r="AO31" s="86"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="74"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="74"/>
+      <c r="AI31" s="74"/>
+      <c r="AJ31" s="74"/>
+      <c r="AK31" s="74"/>
+      <c r="AL31" s="74"/>
+      <c r="AM31" s="74"/>
+      <c r="AN31" s="74"/>
+      <c r="AO31" s="75"/>
     </row>
     <row r="32" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="76"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="81"/>
       <c r="N32" s="28"/>
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
@@ -5919,51 +5966,60 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="N29:AO29"/>
-    <mergeCell ref="N30:AO30"/>
-    <mergeCell ref="N31:AO31"/>
-    <mergeCell ref="N24:AO24"/>
-    <mergeCell ref="N25:AO25"/>
-    <mergeCell ref="N26:AO26"/>
-    <mergeCell ref="N27:AO27"/>
-    <mergeCell ref="N28:AO28"/>
-    <mergeCell ref="N19:AO19"/>
-    <mergeCell ref="N20:AO20"/>
-    <mergeCell ref="N21:AO21"/>
-    <mergeCell ref="N22:AO22"/>
-    <mergeCell ref="N23:AO23"/>
-    <mergeCell ref="N14:AO14"/>
-    <mergeCell ref="N15:AO15"/>
-    <mergeCell ref="N16:AO16"/>
-    <mergeCell ref="N17:AO17"/>
-    <mergeCell ref="N18:AO18"/>
-    <mergeCell ref="N9:AO9"/>
-    <mergeCell ref="N10:AO10"/>
-    <mergeCell ref="N11:AO11"/>
-    <mergeCell ref="N12:AO12"/>
-    <mergeCell ref="N13:AO13"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="N7:AO7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="N8:AO8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J9:M9"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="J20:M20"/>
@@ -5988,60 +6044,51 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="N6:AO6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="N7:AO7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="N8:AO8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="N14:AO14"/>
+    <mergeCell ref="N15:AO15"/>
+    <mergeCell ref="N16:AO16"/>
+    <mergeCell ref="N17:AO17"/>
+    <mergeCell ref="N18:AO18"/>
+    <mergeCell ref="N9:AO9"/>
+    <mergeCell ref="N10:AO10"/>
+    <mergeCell ref="N11:AO11"/>
+    <mergeCell ref="N12:AO12"/>
+    <mergeCell ref="N13:AO13"/>
+    <mergeCell ref="N29:AO29"/>
+    <mergeCell ref="N30:AO30"/>
+    <mergeCell ref="N31:AO31"/>
+    <mergeCell ref="N24:AO24"/>
+    <mergeCell ref="N25:AO25"/>
+    <mergeCell ref="N26:AO26"/>
+    <mergeCell ref="N27:AO27"/>
+    <mergeCell ref="N28:AO28"/>
+    <mergeCell ref="N19:AO19"/>
+    <mergeCell ref="N20:AO20"/>
+    <mergeCell ref="N21:AO21"/>
+    <mergeCell ref="N22:AO22"/>
+    <mergeCell ref="N23:AO23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -6518,7 +6565,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -6528,27 +6575,27 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.15">
@@ -6572,9 +6619,9 @@
     <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BD29"/>
+  <dimension ref="B1:BD32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7223,8 +7270,8 @@
       <c r="AA11" s="24"/>
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
-      <c r="AD11" s="64" t="s">
-        <v>151</v>
+      <c r="AD11" s="25" t="s">
+        <v>147</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -7440,7 +7487,7 @@
     </row>
     <row r="15" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -7502,7 +7549,7 @@
     </row>
     <row r="16" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -7564,7 +7611,7 @@
     </row>
     <row r="17" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -7580,7 +7627,7 @@
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
@@ -7596,7 +7643,7 @@
       <c r="AB17" s="24"/>
       <c r="AC17" s="34"/>
       <c r="AD17" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE17" s="25"/>
       <c r="AF17" s="24"/>
@@ -7626,7 +7673,7 @@
     </row>
     <row r="18" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
@@ -7642,7 +7689,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
@@ -7658,7 +7705,7 @@
       <c r="AB18" s="24"/>
       <c r="AC18" s="34"/>
       <c r="AD18" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE18" s="25"/>
       <c r="AF18" s="24"/>
@@ -7688,7 +7735,7 @@
     </row>
     <row r="19" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -7704,7 +7751,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
@@ -7720,7 +7767,7 @@
       <c r="AB19" s="24"/>
       <c r="AC19" s="34"/>
       <c r="AD19" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE19" s="25"/>
       <c r="AF19" s="24"/>
@@ -7812,7 +7859,7 @@
     </row>
     <row r="21" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -7843,8 +7890,8 @@
       <c r="AA21" s="24"/>
       <c r="AB21" s="24"/>
       <c r="AC21" s="34"/>
-      <c r="AD21" s="25" t="s">
-        <v>74</v>
+      <c r="AD21" s="98" t="s">
+        <v>164</v>
       </c>
       <c r="AE21" s="25"/>
       <c r="AF21" s="24"/>
@@ -7874,7 +7921,7 @@
     </row>
     <row r="22" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -7890,7 +7937,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
@@ -7905,8 +7952,8 @@
       <c r="AA22" s="24"/>
       <c r="AB22" s="24"/>
       <c r="AC22" s="34"/>
-      <c r="AD22" s="25" t="s">
-        <v>44</v>
+      <c r="AD22" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="AE22" s="25"/>
       <c r="AF22" s="24"/>
@@ -7936,7 +7983,7 @@
     </row>
     <row r="23" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -7952,7 +7999,7 @@
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
@@ -7968,7 +8015,7 @@
       <c r="AB23" s="24"/>
       <c r="AC23" s="34"/>
       <c r="AD23" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE23" s="25"/>
       <c r="AF23" s="24"/>
@@ -7998,7 +8045,7 @@
     </row>
     <row r="24" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -8014,7 +8061,7 @@
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
@@ -8029,8 +8076,8 @@
       <c r="AA24" s="24"/>
       <c r="AB24" s="24"/>
       <c r="AC24" s="34"/>
-      <c r="AD24" s="25" t="s">
-        <v>150</v>
+      <c r="AD24" s="98" t="s">
+        <v>163</v>
       </c>
       <c r="AE24" s="25"/>
       <c r="AF24" s="24"/>
@@ -8060,7 +8107,7 @@
     </row>
     <row r="25" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -8076,7 +8123,7 @@
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
@@ -8091,8 +8138,8 @@
       <c r="AA25" s="24"/>
       <c r="AB25" s="24"/>
       <c r="AC25" s="34"/>
-      <c r="AD25" s="25" t="s">
-        <v>116</v>
+      <c r="AD25" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="AE25" s="25"/>
       <c r="AF25" s="24"/>
@@ -8121,40 +8168,40 @@
       <c r="BC25" s="26"/>
     </row>
     <row r="26" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="63" t="s">
-        <v>157</v>
+      <c r="B26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="24"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="AE26" s="25"/>
       <c r="AF26" s="24"/>
@@ -8183,35 +8230,41 @@
       <c r="BC26" s="26"/>
     </row>
     <row r="27" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="25"/>
+      <c r="B27" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="63" t="s">
+        <v>157</v>
+      </c>
       <c r="AE27" s="25"/>
       <c r="AF27" s="24"/>
       <c r="AG27" s="25"/>
@@ -8239,116 +8292,290 @@
       <c r="BC27" s="26"/>
     </row>
     <row r="28" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="15"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="15"/>
-      <c r="AP28" s="15"/>
-      <c r="AQ28" s="15"/>
-      <c r="AR28" s="15"/>
-      <c r="AS28" s="15"/>
-      <c r="AT28" s="15"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="15"/>
-      <c r="AW28" s="15"/>
-      <c r="AX28" s="15"/>
-      <c r="AY28" s="15"/>
-      <c r="AZ28" s="15"/>
-      <c r="BA28" s="15"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="15"/>
+      <c r="B28" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="25"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="25"/>
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="25"/>
+      <c r="BA28" s="25"/>
+      <c r="BB28" s="25"/>
+      <c r="BC28" s="26"/>
     </row>
     <row r="29" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="6"/>
-      <c r="AL29" s="6"/>
-      <c r="AM29" s="6"/>
-      <c r="AN29" s="6"/>
-      <c r="AO29" s="6"/>
-      <c r="AP29" s="6"/>
-      <c r="AQ29" s="6"/>
-      <c r="AR29" s="6"/>
-      <c r="AS29" s="6"/>
-      <c r="AT29" s="6"/>
-      <c r="AU29" s="6"/>
-      <c r="AV29" s="6"/>
-      <c r="AW29" s="6"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="6"/>
-      <c r="AZ29" s="6"/>
-      <c r="BA29" s="6"/>
-      <c r="BB29" s="6"/>
-      <c r="BC29" s="6"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="25"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="25"/>
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="25"/>
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="25"/>
+      <c r="BB29" s="25"/>
+      <c r="BC29" s="26"/>
+    </row>
+    <row r="30" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="25"/>
+      <c r="AZ30" s="25"/>
+      <c r="BA30" s="25"/>
+      <c r="BB30" s="25"/>
+      <c r="BC30" s="26"/>
+    </row>
+    <row r="31" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+    </row>
+    <row r="32" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="6"/>
+      <c r="BA32" s="6"/>
+      <c r="BB32" s="6"/>
+      <c r="BC32" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -8579,7 +8806,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -8897,7 +9124,7 @@
       <c r="AB9" s="24"/>
       <c r="AC9" s="34"/>
       <c r="AD9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE9" s="25"/>
       <c r="AF9" s="24"/>
@@ -8959,7 +9186,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="24"/>
@@ -9021,7 +9248,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -9051,7 +9278,7 @@
     </row>
     <row r="12" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -9067,7 +9294,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
@@ -9083,7 +9310,7 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE12" s="25"/>
       <c r="AF12" s="24"/>
@@ -9113,7 +9340,7 @@
     </row>
     <row r="13" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -9129,7 +9356,7 @@
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
@@ -9145,7 +9372,7 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="24"/>
@@ -9175,7 +9402,7 @@
     </row>
     <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -9191,7 +9418,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -9207,7 +9434,7 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AE14" s="25"/>
       <c r="AF14" s="37"/>
@@ -10360,7 +10587,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -10420,7 +10647,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -10678,7 +10905,7 @@
       <c r="AB9" s="24"/>
       <c r="AC9" s="34"/>
       <c r="AD9" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE9" s="25"/>
       <c r="AF9" s="24"/>
@@ -10740,7 +10967,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="24"/>
@@ -10802,7 +11029,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -10832,7 +11059,7 @@
     </row>
     <row r="12" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -10848,7 +11075,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
@@ -10864,7 +11091,7 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE12" s="25"/>
       <c r="AF12" s="24"/>
@@ -10894,7 +11121,7 @@
     </row>
     <row r="13" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -10910,7 +11137,7 @@
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
@@ -10926,7 +11153,7 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="24"/>
@@ -10956,7 +11183,7 @@
     </row>
     <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -10972,7 +11199,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -10988,7 +11215,7 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AE14" s="36"/>
       <c r="AF14" s="37"/>
@@ -12141,7 +12368,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -12201,7 +12428,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -12459,7 +12686,7 @@
       <c r="AB9" s="24"/>
       <c r="AC9" s="34"/>
       <c r="AD9" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE9" s="25"/>
       <c r="AF9" s="24"/>
@@ -12521,7 +12748,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="24"/>
@@ -12583,7 +12810,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -12613,7 +12840,7 @@
     </row>
     <row r="12" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -12629,7 +12856,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
@@ -12645,7 +12872,7 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE12" s="25"/>
       <c r="AF12" s="24"/>
@@ -12675,7 +12902,7 @@
     </row>
     <row r="13" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -12691,7 +12918,7 @@
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
@@ -12707,7 +12934,7 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="24"/>
@@ -12737,7 +12964,7 @@
     </row>
     <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -12753,7 +12980,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -12769,7 +12996,7 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AE14" s="36"/>
       <c r="AF14" s="37"/>
@@ -13922,7 +14149,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -13982,7 +14209,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -14240,7 +14467,7 @@
       <c r="AB9" s="24"/>
       <c r="AC9" s="34"/>
       <c r="AD9" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AE9" s="25"/>
       <c r="AF9" s="24"/>
@@ -14302,7 +14529,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="24"/>
@@ -14364,7 +14591,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -14394,7 +14621,7 @@
     </row>
     <row r="12" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -14410,7 +14637,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
@@ -14426,7 +14653,7 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AE12" s="25"/>
       <c r="AF12" s="24"/>
@@ -14456,7 +14683,7 @@
     </row>
     <row r="13" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -14472,7 +14699,7 @@
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
@@ -14488,7 +14715,7 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="24"/>
@@ -14518,7 +14745,7 @@
     </row>
     <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -14534,7 +14761,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -14550,7 +14777,7 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AE14" s="36"/>
       <c r="AF14" s="37"/>
@@ -15703,7 +15930,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -15763,7 +15990,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -16021,7 +16248,7 @@
       <c r="AB9" s="24"/>
       <c r="AC9" s="34"/>
       <c r="AD9" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AE9" s="25"/>
       <c r="AF9" s="24"/>
@@ -16083,7 +16310,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="24"/>
@@ -16145,7 +16372,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -16175,7 +16402,7 @@
     </row>
     <row r="12" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -16191,7 +16418,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
@@ -16207,7 +16434,7 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AE12" s="25"/>
       <c r="AF12" s="24"/>
@@ -16237,7 +16464,7 @@
     </row>
     <row r="13" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -16253,7 +16480,7 @@
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
       <c r="P13" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
@@ -16269,7 +16496,7 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="24"/>
@@ -16299,7 +16526,7 @@
     </row>
     <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -16315,7 +16542,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -16331,7 +16558,7 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AE14" s="36"/>
       <c r="AF14" s="37"/>

--- a/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_Python環境変数ファイル定義(SaaS対応).xlsx
+++ b/20_営業/12_OIC共通/BR100/ERP_T_BR100_CCD_Python環境変数ファイル定義(SaaS対応).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="5400" windowWidth="17250" windowHeight="6750" activeTab="3"/>
+    <workbookView xWindow="8190" yWindow="5400" windowWidth="17250" windowHeight="6750" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="172">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -543,12 +543,6 @@
     <t>icsflowlog</t>
   </si>
   <si>
-    <t>https://devoic1-nro6v6bxyc5e-nt.integration.ocp.oraclecloud.com:443</t>
-  </si>
-  <si>
-    <t>https://prodoic1-nro6v6bxyc5e-nt.integration.ocp.oraclecloud.com:443</t>
-  </si>
-  <si>
     <t>ocfssv11</t>
   </si>
   <si>
@@ -846,9 +840,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://stgoic1-nro6v6bxyc5e-nt.integration.ocp.oraclecloud.com:443</t>
-  </si>
-  <si>
     <t>Basic c3Rnb2ljdXNlcjpTOGglNW5KJGZaTlc=</t>
   </si>
   <si>
@@ -1014,10 +1005,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Issue1.8</t>
-    <phoneticPr fontId="20"/>
-  </si>
-  <si>
     <t>30.05</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1073,15 +1060,164 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>360</t>
+    <t>SCSK飯塚</t>
+    <rPh sb="4" eb="6">
+      <t>イイツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/ic/api/integration/v1/flows/rest/XXCCD039/1.0/RestOCILogDL</t>
+  </si>
+  <si>
+    <t>XXCCD039_API_PATH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XXCCD039のAPIのパス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>https://prodoic1-nro6v6bxyc5e-nt.integration.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ap-tokyo-1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocp.oraclecloud.com:443</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>https://stgoic1-nro6v6bxyc5e-nt.integration.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ap-tokyo-1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocp.oraclecloud.com:443</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Issue1.10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Issue1.10</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>E_本稼動_19878 502bad gatewayエラー対応</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+E_本稼動_19764対応</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>https://prodoic1-nro6v6bxyc5e-nt.integration.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ap-tokyo-1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocp.oraclecloud.com:443</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>https://devoic1-nro6v6bxyc5e-nt.integration.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ap-tokyo-1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocp.oraclecloud.com:443</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1272,13 +1408,20 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF66FF"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1306,6 +1449,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,7 +1742,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1737,6 +1892,33 @@
     <xf numFmtId="49" fontId="26" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1763,6 +1945,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1830,7 +2015,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1842,6 +2026,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
@@ -3802,7 +3987,9 @@
   </sheetPr>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4069,8 +4256,8 @@
       <c r="A1" s="38"/>
     </row>
     <row r="2" spans="1:9" s="40" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="41"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
@@ -4080,10 +4267,10 @@
     </row>
     <row r="3" spans="1:9" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
@@ -4092,23 +4279,23 @@
     </row>
     <row r="5" spans="1:9" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
       <c r="B6" s="47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="47"/>
     </row>
     <row r="7" spans="1:9" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="47"/>
     </row>
@@ -4136,52 +4323,52 @@
     <row r="15" spans="1:9" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
       <c r="C15" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="69"/>
+        <v>87</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="82"/>
     </row>
     <row r="16" spans="1:9" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="C16" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="70">
+        <v>89</v>
+      </c>
+      <c r="D16" s="83">
         <v>44762</v>
       </c>
-      <c r="E16" s="69"/>
+      <c r="E16" s="82"/>
     </row>
     <row r="17" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="C17" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="70">
-        <v>45384</v>
-      </c>
-      <c r="E17" s="69"/>
+        <v>90</v>
+      </c>
+      <c r="D17" s="83">
+        <v>45540</v>
+      </c>
+      <c r="E17" s="82"/>
     </row>
     <row r="18" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A18" s="48"/>
       <c r="C18" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="48"/>
       <c r="C19" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="72"/>
+        <v>93</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
@@ -4195,22 +4382,22 @@
     <row r="23" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C24" s="39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C25" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
+        <v>95</v>
+      </c>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
     </row>
     <row r="26" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C26" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
+        <v>96</v>
+      </c>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
     </row>
     <row r="27" spans="1:5" s="39" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
@@ -4238,7 +4425,7 @@
     </row>
     <row r="35" spans="1:9" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -4251,7 +4438,7 @@
     </row>
     <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" s="60"/>
       <c r="C36" s="60"/>
@@ -4334,7 +4521,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4536,1405 +4725,1413 @@
   <sheetData>
     <row r="1" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="82" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="82" t="s">
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="100"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A3" s="101">
+        <v>44762</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="107"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A4" s="108">
+        <v>44979</v>
+      </c>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="86"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A3" s="87">
-        <v>44762</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="92"/>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="92"/>
-      <c r="AK3" s="92"/>
-      <c r="AL3" s="92"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92"/>
-      <c r="AO3" s="93"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A4" s="94">
-        <v>44979</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="76" t="s">
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="76" t="s">
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="88"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A5" s="108">
+        <v>44985</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="75"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A5" s="94">
-        <v>44985</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="75"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="87"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="88"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A6" s="94">
+      <c r="A6" s="108">
         <v>45028</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="76" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="76" t="s">
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="88"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A7" s="108">
+        <v>45054</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="74"/>
-      <c r="AJ6" s="74"/>
-      <c r="AK6" s="74"/>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="74"/>
-      <c r="AN6" s="74"/>
-      <c r="AO6" s="75"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A7" s="94">
-        <v>45054</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="95" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="110"/>
+      <c r="AJ7" s="110"/>
+      <c r="AK7" s="110"/>
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="110"/>
+      <c r="AO7" s="111"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A8" s="108">
+        <v>45090</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="96"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="96"/>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="96"/>
-      <c r="AL7" s="96"/>
-      <c r="AM7" s="96"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="97"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A8" s="94">
-        <v>45090</v>
-      </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="74"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="75"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="88"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A9" s="94">
+      <c r="A9" s="108">
         <v>45091</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="75"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="88"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A10" s="94">
+      <c r="A10" s="108">
         <v>45132</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="76" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="88"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A11" s="108">
+        <v>45156</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="76" t="s">
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="75"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A11" s="94">
-        <v>45156</v>
-      </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="76" t="s">
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="88"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A12" s="108">
+        <v>45198</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="73" t="s">
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="75"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A12" s="94">
-        <v>45198</v>
-      </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="76" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="74"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="74"/>
-      <c r="AL12" s="74"/>
-      <c r="AM12" s="74"/>
-      <c r="AN12" s="74"/>
-      <c r="AO12" s="75"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="88"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A13" s="94">
+      <c r="A13" s="108">
         <v>45384</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="74"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="74"/>
-      <c r="AL13" s="74"/>
-      <c r="AM13" s="74"/>
-      <c r="AN13" s="74"/>
-      <c r="AO13" s="75"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A14" s="94"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="74"/>
-      <c r="AI14" s="74"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="74"/>
-      <c r="AN14" s="74"/>
-      <c r="AO14" s="75"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="88"/>
+    </row>
+    <row r="14" spans="1:41" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="108">
+        <v>45540</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="88"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A15" s="94"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="74"/>
-      <c r="AI15" s="74"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="74"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="74"/>
-      <c r="AN15" s="74"/>
-      <c r="AO15" s="75"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="88"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A16" s="94"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="74"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="74"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="74"/>
-      <c r="AO16" s="75"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="88"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A17" s="94"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
-      <c r="AI17" s="74"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="74"/>
-      <c r="AL17" s="74"/>
-      <c r="AM17" s="74"/>
-      <c r="AN17" s="74"/>
-      <c r="AO17" s="75"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="88"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A18" s="94"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
-      <c r="AH18" s="74"/>
-      <c r="AI18" s="74"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="74"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="74"/>
-      <c r="AN18" s="74"/>
-      <c r="AO18" s="75"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="87"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="88"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A19" s="94"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
-      <c r="AH19" s="74"/>
-      <c r="AI19" s="74"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="74"/>
-      <c r="AL19" s="74"/>
-      <c r="AM19" s="74"/>
-      <c r="AN19" s="74"/>
-      <c r="AO19" s="75"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="88"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A20" s="94"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="74"/>
-      <c r="AH20" s="74"/>
-      <c r="AI20" s="74"/>
-      <c r="AJ20" s="74"/>
-      <c r="AK20" s="74"/>
-      <c r="AL20" s="74"/>
-      <c r="AM20" s="74"/>
-      <c r="AN20" s="74"/>
-      <c r="AO20" s="75"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="87"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="87"/>
+      <c r="AG20" s="87"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="87"/>
+      <c r="AL20" s="87"/>
+      <c r="AM20" s="87"/>
+      <c r="AN20" s="87"/>
+      <c r="AO20" s="88"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A21" s="94"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
-      <c r="AI21" s="74"/>
-      <c r="AJ21" s="74"/>
-      <c r="AK21" s="74"/>
-      <c r="AL21" s="74"/>
-      <c r="AM21" s="74"/>
-      <c r="AN21" s="74"/>
-      <c r="AO21" s="75"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="88"/>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A22" s="94"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="74"/>
-      <c r="AI22" s="74"/>
-      <c r="AJ22" s="74"/>
-      <c r="AK22" s="74"/>
-      <c r="AL22" s="74"/>
-      <c r="AM22" s="74"/>
-      <c r="AN22" s="74"/>
-      <c r="AO22" s="75"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="87"/>
+      <c r="AE22" s="87"/>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="87"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="87"/>
+      <c r="AL22" s="87"/>
+      <c r="AM22" s="87"/>
+      <c r="AN22" s="87"/>
+      <c r="AO22" s="88"/>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A23" s="94"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="74"/>
-      <c r="AI23" s="74"/>
-      <c r="AJ23" s="74"/>
-      <c r="AK23" s="74"/>
-      <c r="AL23" s="74"/>
-      <c r="AM23" s="74"/>
-      <c r="AN23" s="74"/>
-      <c r="AO23" s="75"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="87"/>
+      <c r="AE23" s="87"/>
+      <c r="AF23" s="87"/>
+      <c r="AG23" s="87"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="87"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="87"/>
+      <c r="AL23" s="87"/>
+      <c r="AM23" s="87"/>
+      <c r="AN23" s="87"/>
+      <c r="AO23" s="88"/>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A24" s="94"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
-      <c r="AH24" s="74"/>
-      <c r="AI24" s="74"/>
-      <c r="AJ24" s="74"/>
-      <c r="AK24" s="74"/>
-      <c r="AL24" s="74"/>
-      <c r="AM24" s="74"/>
-      <c r="AN24" s="74"/>
-      <c r="AO24" s="75"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="87"/>
+      <c r="AE24" s="87"/>
+      <c r="AF24" s="87"/>
+      <c r="AG24" s="87"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="87"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="87"/>
+      <c r="AL24" s="87"/>
+      <c r="AM24" s="87"/>
+      <c r="AN24" s="87"/>
+      <c r="AO24" s="88"/>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A25" s="94"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
-      <c r="AI25" s="74"/>
-      <c r="AJ25" s="74"/>
-      <c r="AK25" s="74"/>
-      <c r="AL25" s="74"/>
-      <c r="AM25" s="74"/>
-      <c r="AN25" s="74"/>
-      <c r="AO25" s="75"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="87"/>
+      <c r="AC25" s="87"/>
+      <c r="AD25" s="87"/>
+      <c r="AE25" s="87"/>
+      <c r="AF25" s="87"/>
+      <c r="AG25" s="87"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="87"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="87"/>
+      <c r="AL25" s="87"/>
+      <c r="AM25" s="87"/>
+      <c r="AN25" s="87"/>
+      <c r="AO25" s="88"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A26" s="94"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="74"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="74"/>
-      <c r="AM26" s="74"/>
-      <c r="AN26" s="74"/>
-      <c r="AO26" s="75"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="88"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A27" s="94"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="74"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="74"/>
-      <c r="AH27" s="74"/>
-      <c r="AI27" s="74"/>
-      <c r="AJ27" s="74"/>
-      <c r="AK27" s="74"/>
-      <c r="AL27" s="74"/>
-      <c r="AM27" s="74"/>
-      <c r="AN27" s="74"/>
-      <c r="AO27" s="75"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="87"/>
+      <c r="AF27" s="87"/>
+      <c r="AG27" s="87"/>
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="87"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="87"/>
+      <c r="AL27" s="87"/>
+      <c r="AM27" s="87"/>
+      <c r="AN27" s="87"/>
+      <c r="AO27" s="88"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A28" s="94"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="74"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="74"/>
-      <c r="AF28" s="74"/>
-      <c r="AG28" s="74"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="74"/>
-      <c r="AJ28" s="74"/>
-      <c r="AK28" s="74"/>
-      <c r="AL28" s="74"/>
-      <c r="AM28" s="74"/>
-      <c r="AN28" s="74"/>
-      <c r="AO28" s="75"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="87"/>
+      <c r="AE28" s="87"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="87"/>
+      <c r="AM28" s="87"/>
+      <c r="AN28" s="87"/>
+      <c r="AO28" s="88"/>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="74"/>
-      <c r="AH29" s="74"/>
-      <c r="AI29" s="74"/>
-      <c r="AJ29" s="74"/>
-      <c r="AK29" s="74"/>
-      <c r="AL29" s="74"/>
-      <c r="AM29" s="74"/>
-      <c r="AN29" s="74"/>
-      <c r="AO29" s="75"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="87"/>
+      <c r="AC29" s="87"/>
+      <c r="AD29" s="87"/>
+      <c r="AE29" s="87"/>
+      <c r="AF29" s="87"/>
+      <c r="AG29" s="87"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="87"/>
+      <c r="AJ29" s="87"/>
+      <c r="AK29" s="87"/>
+      <c r="AL29" s="87"/>
+      <c r="AM29" s="87"/>
+      <c r="AN29" s="87"/>
+      <c r="AO29" s="88"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="74"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="74"/>
-      <c r="AF30" s="74"/>
-      <c r="AG30" s="74"/>
-      <c r="AH30" s="74"/>
-      <c r="AI30" s="74"/>
-      <c r="AJ30" s="74"/>
-      <c r="AK30" s="74"/>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="74"/>
-      <c r="AN30" s="74"/>
-      <c r="AO30" s="75"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="87"/>
+      <c r="AE30" s="87"/>
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="87"/>
+      <c r="AI30" s="87"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="87"/>
+      <c r="AM30" s="87"/>
+      <c r="AN30" s="87"/>
+      <c r="AO30" s="88"/>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="74"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="74"/>
-      <c r="AD31" s="74"/>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="74"/>
-      <c r="AG31" s="74"/>
-      <c r="AH31" s="74"/>
-      <c r="AI31" s="74"/>
-      <c r="AJ31" s="74"/>
-      <c r="AK31" s="74"/>
-      <c r="AL31" s="74"/>
-      <c r="AM31" s="74"/>
-      <c r="AN31" s="74"/>
-      <c r="AO31" s="75"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="87"/>
+      <c r="AE31" s="87"/>
+      <c r="AF31" s="87"/>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="87"/>
+      <c r="AJ31" s="87"/>
+      <c r="AK31" s="87"/>
+      <c r="AL31" s="87"/>
+      <c r="AM31" s="87"/>
+      <c r="AN31" s="87"/>
+      <c r="AO31" s="88"/>
     </row>
     <row r="32" spans="1:41" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="79"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="81"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="95"/>
       <c r="N32" s="28"/>
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
@@ -6565,7 +6762,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -6575,27 +6772,27 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.15">
@@ -6616,12 +6813,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
-    <tabColor rgb="FFFF00FF"/>
+    <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BD32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7271,7 +7470,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -7858,42 +8057,42 @@
       <c r="BC20" s="26"/>
     </row>
     <row r="21" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="23" t="s">
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE21" s="25"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE21" s="69"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="25"/>
       <c r="AH21" s="25"/>
@@ -7920,42 +8119,42 @@
       <c r="BC21" s="26"/>
     </row>
     <row r="22" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="23" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE22" s="25"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE22" s="69"/>
       <c r="AF22" s="24"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="25"/>
@@ -7982,42 +8181,42 @@
       <c r="BC22" s="26"/>
     </row>
     <row r="23" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="23" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="25" t="s">
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="AE23" s="25"/>
+      <c r="AE23" s="69"/>
       <c r="AF23" s="24"/>
       <c r="AG23" s="25"/>
       <c r="AH23" s="25"/>
@@ -8044,42 +8243,42 @@
       <c r="BC23" s="26"/>
     </row>
     <row r="24" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="23" t="s">
+      <c r="B24" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE24" s="25"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE24" s="69"/>
       <c r="AF24" s="24"/>
       <c r="AG24" s="25"/>
       <c r="AH24" s="25"/>
@@ -8106,42 +8305,42 @@
       <c r="BC24" s="26"/>
     </row>
     <row r="25" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="23" t="s">
+      <c r="B25" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE25" s="25"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE25" s="69"/>
       <c r="AF25" s="24"/>
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
@@ -8168,42 +8367,42 @@
       <c r="BC25" s="26"/>
     </row>
     <row r="26" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE26" s="25"/>
+      <c r="B26" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE26" s="69"/>
       <c r="AF26" s="24"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
@@ -8230,42 +8429,42 @@
       <c r="BC26" s="26"/>
     </row>
     <row r="27" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE27" s="25"/>
+      <c r="B27" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE27" s="69"/>
       <c r="AF27" s="24"/>
       <c r="AG27" s="25"/>
       <c r="AH27" s="25"/>
@@ -8292,42 +8491,42 @@
       <c r="BC27" s="26"/>
     </row>
     <row r="28" spans="2:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE28" s="25"/>
+      <c r="B28" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE28" s="69"/>
       <c r="AF28" s="24"/>
       <c r="AG28" s="25"/>
       <c r="AH28" s="25"/>
@@ -8594,11 +8793,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BD30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ21" sqref="BJ21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9123,34 +9325,34 @@
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="34"/>
-      <c r="AD9" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="26"/>
+      <c r="AD9" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="79"/>
     </row>
     <row r="10" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
@@ -9186,7 +9388,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="24"/>
@@ -9248,7 +9450,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -9372,7 +9574,7 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="24"/>
@@ -9402,7 +9604,7 @@
     </row>
     <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -9418,7 +9620,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -9434,7 +9636,7 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE14" s="25"/>
       <c r="AF14" s="37"/>
@@ -9463,60 +9665,66 @@
       <c r="BC14" s="26"/>
     </row>
     <row r="15" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="26"/>
+      <c r="B15" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="76"/>
     </row>
     <row r="16" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
@@ -10375,11 +10583,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BD30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD36" sqref="AD36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10587,7 +10798,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -10647,7 +10858,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -10904,34 +11115,34 @@
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="34"/>
-      <c r="AD9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="26"/>
+      <c r="AD9" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="79"/>
     </row>
     <row r="10" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
@@ -10967,7 +11178,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="24"/>
@@ -11029,7 +11240,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -11091,7 +11302,7 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE12" s="25"/>
       <c r="AF12" s="24"/>
@@ -11153,7 +11364,7 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="24"/>
@@ -11183,7 +11394,7 @@
     </row>
     <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -11199,7 +11410,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -11215,7 +11426,7 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE14" s="36"/>
       <c r="AF14" s="37"/>
@@ -11244,60 +11455,66 @@
       <c r="BC14" s="26"/>
     </row>
     <row r="15" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="26"/>
+      <c r="B15" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="76"/>
     </row>
     <row r="16" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
@@ -12156,11 +12373,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BD30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH56" sqref="AH56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12368,7 +12588,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -12428,7 +12648,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -12685,34 +12905,34 @@
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="34"/>
-      <c r="AD9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="26"/>
+      <c r="AD9" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="79"/>
     </row>
     <row r="10" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
@@ -12748,7 +12968,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="24"/>
@@ -12810,7 +13030,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -12872,7 +13092,7 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AE12" s="25"/>
       <c r="AF12" s="24"/>
@@ -12934,7 +13154,7 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="24"/>
@@ -12964,7 +13184,7 @@
     </row>
     <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -12980,7 +13200,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -12996,7 +13216,7 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE14" s="36"/>
       <c r="AF14" s="37"/>
@@ -13025,60 +13245,66 @@
       <c r="BC14" s="26"/>
     </row>
     <row r="15" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="26"/>
+      <c r="B15" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="76"/>
     </row>
     <row r="16" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
@@ -13937,11 +14163,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BD30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14149,7 +14378,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -14209,7 +14438,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -14466,34 +14695,34 @@
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="34"/>
-      <c r="AD9" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="26"/>
+      <c r="AD9" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="79"/>
     </row>
     <row r="10" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
@@ -14529,7 +14758,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="24"/>
@@ -14591,7 +14820,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -14653,7 +14882,7 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AE12" s="25"/>
       <c r="AF12" s="24"/>
@@ -14715,7 +14944,7 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="24"/>
@@ -14745,7 +14974,7 @@
     </row>
     <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -14761,7 +14990,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -14777,7 +15006,7 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE14" s="36"/>
       <c r="AF14" s="37"/>
@@ -14806,60 +15035,66 @@
       <c r="BC14" s="26"/>
     </row>
     <row r="15" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="26"/>
+      <c r="B15" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="76"/>
     </row>
     <row r="16" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
@@ -15718,11 +15953,14 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BD30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15930,7 +16168,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -15990,7 +16228,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -16247,34 +16485,34 @@
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="34"/>
-      <c r="AD9" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="26"/>
+      <c r="AD9" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="79"/>
     </row>
     <row r="10" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
@@ -16310,7 +16548,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="34"/>
       <c r="AD10" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AE10" s="25"/>
       <c r="AF10" s="24"/>
@@ -16372,7 +16610,7 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AE11" s="25"/>
       <c r="AF11" s="24"/>
@@ -16434,7 +16672,7 @@
       <c r="AB12" s="24"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AE12" s="25"/>
       <c r="AF12" s="24"/>
@@ -16496,7 +16734,7 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE13" s="25"/>
       <c r="AF13" s="24"/>
@@ -16526,7 +16764,7 @@
     </row>
     <row r="14" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
@@ -16542,7 +16780,7 @@
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
@@ -16558,7 +16796,7 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AE14" s="36"/>
       <c r="AF14" s="37"/>
@@ -16587,60 +16825,66 @@
       <c r="BC14" s="26"/>
     </row>
     <row r="15" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="26"/>
+      <c r="B15" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="76"/>
     </row>
     <row r="16" spans="2:56" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
